--- a/eduardo/testing_eduardo/PDBs/AF_RNA_seq/AF4_mutations.xlsx
+++ b/eduardo/testing_eduardo/PDBs/AF_RNA_seq/AF4_mutations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/rna_protein_project/Protein_RNA_Optimization-main/eduardo/testing_eduardo/PDBs/AF_RNA_seq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9388BF34-43CD-8B40-B939-BDE17D21D60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF01D0B-DC49-804F-BE64-BB3777C92554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-11760" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{18E42808-773D-7E4D-92D8-D983E3CD3704}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="1" xr2:uid="{18E42808-773D-7E4D-92D8-D983E3CD3704}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,215 +18,16 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$M$2:$M$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$N$2:$N$11</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet3!$AD$2:$AD$6</definedName>
-    <definedName name="_xlchart.v1.100" hidden="1">Sheet3!$Y$2:$Y$6</definedName>
-    <definedName name="_xlchart.v1.101" hidden="1">Sheet3!$Z$2:$Z$6</definedName>
-    <definedName name="_xlchart.v1.102" hidden="1">Sheet3!$AA$2:$AA$6</definedName>
-    <definedName name="_xlchart.v1.103" hidden="1">Sheet3!$AB$2:$AB$6</definedName>
-    <definedName name="_xlchart.v1.104" hidden="1">Sheet3!$AC$2:$AC$6</definedName>
-    <definedName name="_xlchart.v1.105" hidden="1">Sheet3!$AD$2:$AD$6</definedName>
-    <definedName name="_xlchart.v1.106" hidden="1">Sheet3!$N$2:$N$11</definedName>
-    <definedName name="_xlchart.v1.107" hidden="1">Sheet3!$O$2:$O$11</definedName>
-    <definedName name="_xlchart.v1.108" hidden="1">Sheet3!$P$2:$P$11</definedName>
-    <definedName name="_xlchart.v1.109" hidden="1">Sheet3!$Q$2:$Q$11</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet3!$N$2:$N$11</definedName>
-    <definedName name="_xlchart.v1.110" hidden="1">Sheet3!$R$2:$R$11</definedName>
-    <definedName name="_xlchart.v1.111" hidden="1">Sheet3!$U$2:$U$11</definedName>
-    <definedName name="_xlchart.v1.112" hidden="1">Sheet3!$U$2:$U$6</definedName>
-    <definedName name="_xlchart.v1.113" hidden="1">Sheet3!$V$2:$V$11</definedName>
-    <definedName name="_xlchart.v1.114" hidden="1">Sheet3!$V$2:$V$6</definedName>
-    <definedName name="_xlchart.v1.115" hidden="1">Sheet3!$W$2:$W$11</definedName>
-    <definedName name="_xlchart.v1.116" hidden="1">Sheet3!$W$2:$W$6</definedName>
-    <definedName name="_xlchart.v1.117" hidden="1">Sheet3!$X$2:$X$11</definedName>
-    <definedName name="_xlchart.v1.118" hidden="1">Sheet3!$X$2:$X$6</definedName>
-    <definedName name="_xlchart.v1.119" hidden="1">Sheet3!$Y$2:$Y$11</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet3!$O$2:$O$11</definedName>
-    <definedName name="_xlchart.v1.120" hidden="1">Sheet3!$Y$2:$Y$6</definedName>
-    <definedName name="_xlchart.v1.121" hidden="1">Sheet3!$Z$2:$Z$6</definedName>
-    <definedName name="_xlchart.v1.122" hidden="1">Sheet3!$AA$2:$AA$6</definedName>
-    <definedName name="_xlchart.v1.123" hidden="1">Sheet3!$AB$2:$AB$6</definedName>
-    <definedName name="_xlchart.v1.124" hidden="1">Sheet3!$AC$2:$AC$6</definedName>
-    <definedName name="_xlchart.v1.125" hidden="1">Sheet3!$AD$2:$AD$6</definedName>
-    <definedName name="_xlchart.v1.126" hidden="1">Sheet3!$U$2:$U$6</definedName>
-    <definedName name="_xlchart.v1.127" hidden="1">Sheet3!$V$2:$V$6</definedName>
-    <definedName name="_xlchart.v1.128" hidden="1">Sheet3!$W$2:$W$6</definedName>
-    <definedName name="_xlchart.v1.129" hidden="1">Sheet3!$X$2:$X$6</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet3!$P$2:$P$11</definedName>
-    <definedName name="_xlchart.v1.130" hidden="1">Sheet3!$Y$2:$Y$6</definedName>
-    <definedName name="_xlchart.v1.131" hidden="1">Sheet3!$Z$2:$Z$6</definedName>
-    <definedName name="_xlchart.v1.132" hidden="1">Sheet3!$AA$2:$AA$6</definedName>
-    <definedName name="_xlchart.v1.133" hidden="1">Sheet3!$AB$2:$AB$6</definedName>
-    <definedName name="_xlchart.v1.134" hidden="1">Sheet3!$AC$2:$AC$6</definedName>
-    <definedName name="_xlchart.v1.135" hidden="1">Sheet3!$AD$2:$AD$6</definedName>
-    <definedName name="_xlchart.v1.136" hidden="1">Sheet3!$U$2:$U$6</definedName>
-    <definedName name="_xlchart.v1.137" hidden="1">Sheet3!$V$2:$V$6</definedName>
-    <definedName name="_xlchart.v1.138" hidden="1">Sheet3!$W$2:$W$6</definedName>
-    <definedName name="_xlchart.v1.139" hidden="1">Sheet3!$X$2:$X$6</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet3!$Q$2:$Q$11</definedName>
-    <definedName name="_xlchart.v1.140" hidden="1">Sheet3!$Y$2:$Y$6</definedName>
-    <definedName name="_xlchart.v1.141" hidden="1">Sheet3!$Z$2:$Z$6</definedName>
-    <definedName name="_xlchart.v1.142" hidden="1">Sheet3!$AA$2:$AA$6</definedName>
-    <definedName name="_xlchart.v1.143" hidden="1">Sheet3!$AB$2:$AB$6</definedName>
-    <definedName name="_xlchart.v1.144" hidden="1">Sheet3!$AC$2:$AC$6</definedName>
-    <definedName name="_xlchart.v1.145" hidden="1">Sheet3!$AD$2:$AD$6</definedName>
-    <definedName name="_xlchart.v1.146" hidden="1">Sheet3!$N$2:$N$11</definedName>
-    <definedName name="_xlchart.v1.147" hidden="1">Sheet3!$O$2:$O$11</definedName>
-    <definedName name="_xlchart.v1.148" hidden="1">Sheet3!$P$2:$P$11</definedName>
-    <definedName name="_xlchart.v1.149" hidden="1">Sheet3!$Q$2:$Q$11</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet3!$R$2:$R$11</definedName>
-    <definedName name="_xlchart.v1.150" hidden="1">Sheet3!$R$2:$R$11</definedName>
-    <definedName name="_xlchart.v1.151" hidden="1">Sheet3!$U$2:$U$11</definedName>
-    <definedName name="_xlchart.v1.152" hidden="1">Sheet3!$U$2:$U$6</definedName>
-    <definedName name="_xlchart.v1.153" hidden="1">Sheet3!$V$2:$V$11</definedName>
-    <definedName name="_xlchart.v1.154" hidden="1">Sheet3!$V$2:$V$6</definedName>
-    <definedName name="_xlchart.v1.155" hidden="1">Sheet3!$W$2:$W$11</definedName>
-    <definedName name="_xlchart.v1.156" hidden="1">Sheet3!$W$2:$W$6</definedName>
-    <definedName name="_xlchart.v1.157" hidden="1">Sheet3!$X$2:$X$11</definedName>
-    <definedName name="_xlchart.v1.158" hidden="1">Sheet3!$X$2:$X$6</definedName>
-    <definedName name="_xlchart.v1.159" hidden="1">Sheet3!$Y$2:$Y$11</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet3!$U$2:$U$11</definedName>
-    <definedName name="_xlchart.v1.160" hidden="1">Sheet3!$Y$2:$Y$6</definedName>
-    <definedName name="_xlchart.v1.161" hidden="1">Sheet3!$Z$2:$Z$6</definedName>
-    <definedName name="_xlchart.v1.162" hidden="1">Sheet3!$M$2:$M$10</definedName>
-    <definedName name="_xlchart.v1.163" hidden="1">Sheet3!$N$2:$N$10</definedName>
-    <definedName name="_xlchart.v1.164" hidden="1">Sheet3!$O$2:$O$10</definedName>
-    <definedName name="_xlchart.v1.165" hidden="1">Sheet3!$P$2:$P$10</definedName>
-    <definedName name="_xlchart.v1.166" hidden="1">Sheet3!$Q$2:$Q$10</definedName>
-    <definedName name="_xlchart.v1.167" hidden="1">Sheet3!$R$2:$R$10</definedName>
-    <definedName name="_xlchart.v1.168" hidden="1">Sheet3!$S$2:$S$10</definedName>
-    <definedName name="_xlchart.v1.169" hidden="1">Sheet3!$AA$2:$AA$6</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet3!$U$2:$U$6</definedName>
-    <definedName name="_xlchart.v1.170" hidden="1">Sheet3!$AB$2:$AB$6</definedName>
-    <definedName name="_xlchart.v1.171" hidden="1">Sheet3!$AC$2:$AC$6</definedName>
-    <definedName name="_xlchart.v1.172" hidden="1">Sheet3!$AD$2:$AD$6</definedName>
-    <definedName name="_xlchart.v1.173" hidden="1">Sheet3!$N$2:$N$11</definedName>
-    <definedName name="_xlchart.v1.174" hidden="1">Sheet3!$O$2:$O$11</definedName>
-    <definedName name="_xlchart.v1.175" hidden="1">Sheet3!$P$2:$P$11</definedName>
-    <definedName name="_xlchart.v1.176" hidden="1">Sheet3!$Q$2:$Q$11</definedName>
-    <definedName name="_xlchart.v1.177" hidden="1">Sheet3!$R$2:$R$11</definedName>
-    <definedName name="_xlchart.v1.178" hidden="1">Sheet3!$U$2:$U$11</definedName>
-    <definedName name="_xlchart.v1.179" hidden="1">Sheet3!$U$2:$U$6</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet3!$V$2:$V$11</definedName>
-    <definedName name="_xlchart.v1.180" hidden="1">Sheet3!$V$2:$V$11</definedName>
-    <definedName name="_xlchart.v1.181" hidden="1">Sheet3!$V$2:$V$6</definedName>
-    <definedName name="_xlchart.v1.182" hidden="1">Sheet3!$W$2:$W$11</definedName>
-    <definedName name="_xlchart.v1.183" hidden="1">Sheet3!$W$2:$W$6</definedName>
-    <definedName name="_xlchart.v1.184" hidden="1">Sheet3!$X$2:$X$11</definedName>
-    <definedName name="_xlchart.v1.185" hidden="1">Sheet3!$X$2:$X$6</definedName>
-    <definedName name="_xlchart.v1.186" hidden="1">Sheet3!$Y$2:$Y$11</definedName>
-    <definedName name="_xlchart.v1.187" hidden="1">Sheet3!$Y$2:$Y$6</definedName>
-    <definedName name="_xlchart.v1.188" hidden="1">Sheet3!$Z$2:$Z$6</definedName>
-    <definedName name="_xlchart.v1.189" hidden="1">Sheet3!$AA$2:$AA$6</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet3!$V$2:$V$6</definedName>
-    <definedName name="_xlchart.v1.190" hidden="1">Sheet3!$AB$2:$AB$6</definedName>
-    <definedName name="_xlchart.v1.191" hidden="1">Sheet3!$AC$2:$AC$6</definedName>
-    <definedName name="_xlchart.v1.192" hidden="1">Sheet3!$AD$2:$AD$6</definedName>
-    <definedName name="_xlchart.v1.193" hidden="1">Sheet3!$N$2:$N$11</definedName>
-    <definedName name="_xlchart.v1.194" hidden="1">Sheet3!$O$2:$O$11</definedName>
-    <definedName name="_xlchart.v1.195" hidden="1">Sheet3!$P$2:$P$11</definedName>
-    <definedName name="_xlchart.v1.196" hidden="1">Sheet3!$Q$2:$Q$11</definedName>
-    <definedName name="_xlchart.v1.197" hidden="1">Sheet3!$R$2:$R$11</definedName>
-    <definedName name="_xlchart.v1.198" hidden="1">Sheet3!$U$2:$U$11</definedName>
-    <definedName name="_xlchart.v1.199" hidden="1">Sheet3!$U$2:$U$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet3!$O$2:$O$11</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet3!$W$2:$W$11</definedName>
-    <definedName name="_xlchart.v1.200" hidden="1">Sheet3!$V$2:$V$11</definedName>
-    <definedName name="_xlchart.v1.201" hidden="1">Sheet3!$V$2:$V$6</definedName>
-    <definedName name="_xlchart.v1.202" hidden="1">Sheet3!$W$2:$W$11</definedName>
-    <definedName name="_xlchart.v1.203" hidden="1">Sheet3!$W$2:$W$6</definedName>
-    <definedName name="_xlchart.v1.204" hidden="1">Sheet3!$X$2:$X$11</definedName>
-    <definedName name="_xlchart.v1.205" hidden="1">Sheet3!$X$2:$X$6</definedName>
-    <definedName name="_xlchart.v1.206" hidden="1">Sheet3!$Y$2:$Y$11</definedName>
-    <definedName name="_xlchart.v1.207" hidden="1">Sheet3!$Y$2:$Y$6</definedName>
-    <definedName name="_xlchart.v1.208" hidden="1">Sheet3!$Z$2:$Z$6</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet3!$W$2:$W$6</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet3!$X$2:$X$11</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet3!$X$2:$X$6</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet3!$Y$2:$Y$11</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet3!$Y$2:$Y$6</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet3!$Z$2:$Z$6</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet3!$M$2:$M$10</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet3!$N$2:$N$10</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet3!$O$2:$O$10</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$P$2:$P$11</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet3!$P$2:$P$10</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet3!$Q$2:$Q$10</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet3!$R$2:$R$10</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet3!$S$2:$S$10</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet3!$M$2:$M$11</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet3!$N$2:$N$11</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet3!$O$2:$O$11</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet3!$P$2:$P$11</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet3!$Q$2:$Q$11</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet3!$R$2:$R$11</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet3!$Q$2:$Q$11</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet3!$S$2:$S$11</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet3!$AA$2:$AA$6</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet3!$AB$2:$AB$6</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet3!$AC$2:$AC$6</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet3!$AD$2:$AD$6</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet3!$N$2:$N$11</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet3!$O$2:$O$11</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet3!$P$2:$P$11</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet3!$Q$2:$Q$11</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet3!$R$2:$R$11</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet3!$R$2:$R$11</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet3!$U$2:$U$11</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet3!$U$2:$U$6</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet3!$V$2:$V$11</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet3!$V$2:$V$6</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet3!$W$2:$W$11</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet3!$W$2:$W$6</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet3!$X$2:$X$11</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet3!$X$2:$X$6</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet3!$Y$2:$Y$11</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet3!$Y$2:$Y$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet3!$S$2:$S$11</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Sheet3!$Z$2:$Z$6</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Sheet3!$AA$2:$AA$6</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Sheet3!$AB$2:$AB$6</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Sheet3!$AC$2:$AC$6</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Sheet3!$AD$2:$AD$6</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Sheet3!$N$2:$N$11</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Sheet3!$O$2:$O$11</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Sheet3!$P$2:$P$11</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Sheet3!$Q$2:$Q$11</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Sheet3!$R$2:$R$11</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet3!$AA$2:$AA$6</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Sheet3!$U$2:$U$11</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Sheet3!$U$2:$U$6</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">Sheet3!$V$2:$V$11</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">Sheet3!$V$2:$V$6</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">Sheet3!$W$2:$W$11</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">Sheet3!$W$2:$W$6</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">Sheet3!$X$2:$X$11</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">Sheet3!$X$2:$X$6</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">Sheet3!$Y$2:$Y$11</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">Sheet3!$Y$2:$Y$6</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet3!$AB$2:$AB$6</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">Sheet3!$Z$2:$Z$6</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">Sheet3!$AA$2:$AA$6</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">Sheet3!$AB$2:$AB$6</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">Sheet3!$AC$2:$AC$6</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">Sheet3!$AD$2:$AD$6</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">Sheet3!$M$2:$M$11</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">Sheet3!$N$2:$N$11</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">Sheet3!$O$2:$O$11</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">Sheet3!$P$2:$P$11</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">Sheet3!$Q$2:$Q$11</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet3!$AC$2:$AC$6</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">Sheet3!$R$2:$R$11</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">Sheet3!$U$2:$U$11</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">Sheet3!$U$2:$U$6</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">Sheet3!$V$2:$V$11</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">Sheet3!$V$2:$V$6</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">Sheet3!$W$2:$W$11</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">Sheet3!$W$2:$W$6</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">Sheet3!$X$2:$X$11</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">Sheet3!$X$2:$X$6</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">Sheet3!$Y$2:$Y$11</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$AA$2:$AA$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$AB$2:$AB$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet3!$AC$2:$AC$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$AD$2:$AD$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet3!$U$2:$U$6</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet3!$V$2:$V$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet3!$W$2:$W$6</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet3!$X$2:$X$6</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet3!$Y$2:$Y$6</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet3!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2482,52 +2283,52 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.92</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.94</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.96</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.98</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.100</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.101</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.81</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.82</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="8">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.83</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="9">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.84</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2563,6 +2364,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{43526E8D-7069-6945-8219-25CFA890E994}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>AF_77</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2582,6 +2384,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{690A4B75-B9A3-C149-8332-6CE5C148E062}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>AF_68</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2601,6 +2404,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A35BB2AF-FB7F-8647-91FE-E2A9D26812C1}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>AF_57</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2620,6 +2424,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DC4F821C-0A6D-D246-BF98-8E200B7B4CF8}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>AF_51</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2639,6 +2444,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{90AA56CA-D714-E549-98FB-3A2A3D979C92}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>AF_42</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2658,6 +2464,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{530E5BE6-5BB3-054D-A5DD-03866B4C92DB}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>AF_32</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2677,6 +2484,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7AB9726D-FECA-074E-AACF-A148DA3E8797}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>AF_25</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2696,6 +2504,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7D420BE9-8538-2943-8874-856BF89BA326}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>AF_16</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2717,6 +2526,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7C50092E-861F-AB4B-86DB-71D85CA539FE}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>AF_12</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2736,6 +2546,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{227A56FD-B4F6-0047-B8C7-CEB78F1241F0}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>AF_6</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6396,7 +6207,7 @@
         <v>3.5411549999999998</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E97" si="2">1.02*D66-24.54</f>
+        <f t="shared" ref="E66:E78" si="2">1.02*D66-24.54</f>
         <v>-20.928021899999997</v>
       </c>
       <c r="F66">
@@ -6683,8 +6494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BDFF95-CF73-3C40-A0EB-123D9DD557B1}">
   <dimension ref="A1:AD78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ34" sqref="AJ34"/>
+    <sheetView tabSelected="1" topLeftCell="I19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
